--- a/dati/Fattura_Templ.xlsx
+++ b/dati/Fattura_Templ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\java\photon2\readfatt\dati\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3DB979D-D01E-4872-88B8-6030A647E243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1DE244E-5C4B-43B4-96F6-B26CBF23D01F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-34905" yWindow="690" windowWidth="16560" windowHeight="20250" xr2:uid="{E2A2D887-50C5-4B18-AB6F-B16D4B16A3D5}"/>
+    <workbookView xWindow="-35790" yWindow="345" windowWidth="15720" windowHeight="10245" xr2:uid="{E2A2D887-50C5-4B18-AB6F-B16D4B16A3D5}"/>
   </bookViews>
   <sheets>
     <sheet name="01-05_31-08-21" sheetId="1" r:id="rId1"/>
@@ -151,7 +151,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -229,17 +229,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -255,19 +244,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -341,18 +317,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -370,30 +335,25 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -403,18 +363,36 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -729,10 +707,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DE37815-D1F8-4968-92DA-293FE4F2A317}">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -748,16 +726,16 @@
       <c r="A1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="24">
+      <c r="B1" s="19">
         <v>44317</v>
       </c>
-      <c r="C1" s="24">
+      <c r="C1" s="19">
         <v>44439</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="E1" s="35" t="s">
         <v>1</v>
       </c>
       <c r="F1" t="s">
@@ -769,7 +747,7 @@
       <c r="I1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="19"/>
+      <c r="J1" s="14"/>
       <c r="K1" s="5" t="s">
         <v>15</v>
       </c>
@@ -784,22 +762,22 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="49">
+      <c r="B2" s="40">
         <v>174.89</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="24">
+      <c r="E2" s="19">
         <v>44589</v>
       </c>
-      <c r="F2" s="54">
+      <c r="F2" s="43">
         <v>4.5</v>
       </c>
-      <c r="H2" s="16">
+      <c r="H2" s="13">
         <v>2020</v>
       </c>
-      <c r="I2" s="16">
+      <c r="I2" s="13">
         <v>633</v>
       </c>
       <c r="J2" s="8" t="s">
@@ -808,10 +786,10 @@
       <c r="K2" s="9">
         <v>163</v>
       </c>
-      <c r="L2" s="50">
+      <c r="L2" s="41">
         <v>8.9450000000000002E-2</v>
       </c>
-      <c r="N2" s="51">
+      <c r="N2" s="42">
         <v>5.9130000000000002E-2</v>
       </c>
     </row>
@@ -819,17 +797,17 @@
       <c r="A3" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="42">
-        <f>K10+L10+M10+N10</f>
-        <v>191.88493000000003</v>
+      <c r="B3" s="34">
+        <f>K11+L11+M11+N11</f>
+        <v>22.5</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="H3" s="16">
+      <c r="H3" s="13">
         <v>2021</v>
       </c>
-      <c r="I3" s="16">
+      <c r="I3" s="13">
         <v>0</v>
       </c>
       <c r="J3" s="8" t="s">
@@ -838,67 +816,67 @@
       <c r="K3" s="9">
         <v>300</v>
       </c>
-      <c r="L3" s="50">
+      <c r="L3" s="41">
         <v>0.18951000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="35"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="37" t="s">
+      <c r="A4" s="28"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="D4" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="E4" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="38" t="s">
+      <c r="F4" s="6" t="s">
         <v>8</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="H4" s="14" t="s">
         <v>11</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="25" t="s">
+      <c r="J4" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="25" t="s">
+      <c r="K4" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="25" t="s">
+      <c r="L4" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="M4" s="26" t="s">
+      <c r="M4" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="N4" s="39" t="s">
+      <c r="N4" s="31" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="53"/>
-      <c r="C5" s="21">
+      <c r="B5" s="45"/>
+      <c r="C5" s="46">
         <v>44347</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="47">
         <v>24879</v>
       </c>
-      <c r="E5" s="13">
-        <v>25173</v>
-      </c>
-      <c r="F5" s="17">
-        <f>E5-D5</f>
-        <v>294</v>
+      <c r="E5" s="47">
+        <v>0</v>
+      </c>
+      <c r="F5" s="48">
+        <f t="shared" ref="F5:F8" si="0">IF(E5-D5&gt;0,E5-D5,0)</f>
+        <v>0</v>
       </c>
       <c r="G5" s="9">
         <f>I2</f>
@@ -908,7 +886,7 @@
         <f>IF(F5-G5&gt;0,F5-G5,0)</f>
         <v>0</v>
       </c>
-      <c r="I5" s="44">
+      <c r="I5" s="36">
         <f>IF(H5&lt;$K$2,H5,$K$2)</f>
         <v>0</v>
       </c>
@@ -916,43 +894,43 @@
         <f>H5-I5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="45">
+      <c r="K5" s="37">
         <f>$F$2</f>
         <v>4.5</v>
       </c>
-      <c r="L5" s="46">
+      <c r="L5" s="38">
         <f>I5*$L$2</f>
         <v>0</v>
       </c>
-      <c r="M5" s="47">
+      <c r="M5" s="38">
         <f>J5*$L$3</f>
         <v>0</v>
       </c>
-      <c r="N5" s="48">
+      <c r="N5" s="39">
         <f>F5*$N$2</f>
-        <v>17.384219999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="9"/>
-      <c r="C6" s="22">
+      <c r="C6" s="17">
         <v>44377</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="49">
         <f>E5</f>
-        <v>25173</v>
-      </c>
-      <c r="E6" s="14">
-        <v>25477</v>
-      </c>
-      <c r="F6" s="17">
-        <f t="shared" ref="F6:F8" si="0">E6-D6</f>
-        <v>304</v>
+        <v>0</v>
+      </c>
+      <c r="E6" s="50">
+        <v>0</v>
+      </c>
+      <c r="F6" s="51">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="G6" s="9">
         <f>IF(G5-F5&gt;0,G5-F5,0)</f>
-        <v>339</v>
+        <v>633</v>
       </c>
       <c r="H6" s="8">
         <f t="shared" ref="H6:H8" si="1">IF(F6-G6&gt;0,F6-G6,0)</f>
@@ -966,142 +944,192 @@
         <f t="shared" ref="J6:J8" si="3">H6-I6</f>
         <v>0</v>
       </c>
-      <c r="K6" s="32">
-        <f t="shared" ref="K6:K8" si="4">$F$2</f>
+      <c r="K6" s="25">
+        <f t="shared" ref="K6:K9" si="4">$F$2</f>
         <v>4.5</v>
       </c>
-      <c r="L6" s="27">
+      <c r="L6" s="22">
         <f t="shared" ref="L6:L8" si="5">I6*$L$2</f>
         <v>0</v>
       </c>
-      <c r="M6" s="28">
+      <c r="M6" s="22">
         <f t="shared" ref="M6:M8" si="6">J6*$L$3</f>
         <v>0</v>
       </c>
-      <c r="N6" s="40">
+      <c r="N6" s="32">
         <f t="shared" ref="N6:N8" si="7">F6*$N$2</f>
-        <v>17.975519999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="9"/>
-      <c r="C7" s="21">
+      <c r="C7" s="16">
         <v>44408</v>
       </c>
-      <c r="D7" s="9">
-        <f t="shared" ref="D7:D8" si="8">E6</f>
-        <v>25477</v>
-      </c>
-      <c r="E7" s="14">
-        <v>25831</v>
-      </c>
-      <c r="F7" s="17">
+      <c r="D7" s="49">
+        <f t="shared" ref="D7:D9" si="8">E6</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="50">
+        <v>0</v>
+      </c>
+      <c r="F7" s="51">
         <f t="shared" si="0"/>
-        <v>354</v>
+        <v>0</v>
       </c>
       <c r="G7" s="9">
         <f t="shared" ref="G7:G8" si="9">IF(G6-F6&gt;0,G6-F6,0)</f>
-        <v>35</v>
+        <v>633</v>
       </c>
       <c r="H7" s="8">
         <f t="shared" si="1"/>
-        <v>319</v>
+        <v>0</v>
       </c>
       <c r="I7" s="12">
         <f t="shared" si="2"/>
-        <v>163</v>
+        <v>0</v>
       </c>
       <c r="J7" s="9">
         <f t="shared" si="3"/>
-        <v>156</v>
-      </c>
-      <c r="K7" s="32">
+        <v>0</v>
+      </c>
+      <c r="K7" s="25">
         <f t="shared" si="4"/>
         <v>4.5</v>
       </c>
-      <c r="L7" s="27">
+      <c r="L7" s="22">
         <f t="shared" si="5"/>
-        <v>14.580350000000001</v>
-      </c>
-      <c r="M7" s="28">
+        <v>0</v>
+      </c>
+      <c r="M7" s="22">
         <f t="shared" si="6"/>
-        <v>29.563560000000003</v>
-      </c>
-      <c r="N7" s="40">
+        <v>0</v>
+      </c>
+      <c r="N7" s="32">
         <f t="shared" si="7"/>
-        <v>20.932020000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="23">
+      <c r="A8" s="8"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="17">
         <v>44439</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="49">
         <f t="shared" si="8"/>
-        <v>25831</v>
-      </c>
-      <c r="E8" s="15">
-        <v>26192</v>
-      </c>
-      <c r="F8" s="18">
+        <v>0</v>
+      </c>
+      <c r="E8" s="50">
+        <v>0</v>
+      </c>
+      <c r="F8" s="51">
         <f t="shared" si="0"/>
-        <v>361</v>
+        <v>0</v>
       </c>
       <c r="G8" s="9">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="H8" s="10">
+        <v>633</v>
+      </c>
+      <c r="H8" s="8">
         <f t="shared" si="1"/>
-        <v>361</v>
-      </c>
-      <c r="I8" s="29">
+        <v>0</v>
+      </c>
+      <c r="I8" s="12">
         <f t="shared" si="2"/>
-        <v>163</v>
-      </c>
-      <c r="J8" s="11">
+        <v>0</v>
+      </c>
+      <c r="J8" s="9">
         <f t="shared" si="3"/>
-        <v>198</v>
-      </c>
-      <c r="K8" s="33">
+        <v>0</v>
+      </c>
+      <c r="K8" s="25">
         <f t="shared" si="4"/>
         <v>4.5</v>
       </c>
-      <c r="L8" s="30">
+      <c r="L8" s="22">
         <f t="shared" si="5"/>
-        <v>14.580350000000001</v>
-      </c>
-      <c r="M8" s="31">
+        <v>0</v>
+      </c>
+      <c r="M8" s="22">
         <f t="shared" si="6"/>
-        <v>37.522980000000004</v>
-      </c>
-      <c r="N8" s="41">
+        <v>0</v>
+      </c>
+      <c r="N8" s="32">
         <f t="shared" si="7"/>
-        <v>21.345929999999999</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="J10" t="s">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="10"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="18">
+        <v>44439</v>
+      </c>
+      <c r="D9" s="52">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E9" s="53">
+        <v>0</v>
+      </c>
+      <c r="F9" s="54">
+        <f>IF(E9-D9&gt;0,E9-D9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="9">
+        <f t="shared" ref="G9" si="10">IF(G8-F8&gt;0,G8-F8,0)</f>
+        <v>633</v>
+      </c>
+      <c r="H9" s="10">
+        <f t="shared" ref="H9" si="11">IF(F9-G9&gt;0,F9-G9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="23">
+        <f t="shared" ref="I9" si="12">IF(H9&lt;$K$2,H9,$K$2)</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="11">
+        <f t="shared" ref="J9" si="13">H9-I9</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="26">
+        <f t="shared" si="4"/>
+        <v>4.5</v>
+      </c>
+      <c r="L9" s="24">
+        <f t="shared" ref="L9" si="14">I9*$L$2</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="24">
+        <f t="shared" ref="M9" si="15">J9*$L$3</f>
+        <v>0</v>
+      </c>
+      <c r="N9" s="33">
+        <f t="shared" ref="N9" si="16">F9*$N$2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J11" t="s">
         <v>20</v>
       </c>
-      <c r="K10" s="20">
-        <f>SUM(K5:K9)</f>
-        <v>18</v>
-      </c>
-      <c r="L10" s="20">
-        <f>SUM(L5:L9)</f>
-        <v>29.160700000000002</v>
-      </c>
-      <c r="M10" s="20">
+      <c r="K11" s="15">
+        <f t="shared" ref="K11:L11" si="17">SUM(K5:K9)</f>
+        <v>22.5</v>
+      </c>
+      <c r="L11" s="15">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="15">
         <f>SUM(M5:M9)</f>
-        <v>67.086540000000014</v>
-      </c>
-      <c r="N10" s="20">
-        <f>SUM(N5:N8)</f>
-        <v>77.637690000000006</v>
+        <v>0</v>
+      </c>
+      <c r="N11" s="15">
+        <f>SUM(N5:N9)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/dati/Fattura_Templ.xlsx
+++ b/dati/Fattura_Templ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\java\photon2\readfatt\dati\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1DE244E-5C4B-43B4-96F6-B26CBF23D01F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A9FD637-B9FE-4301-8697-9A19709E9DB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-35790" yWindow="345" windowWidth="15720" windowHeight="10245" xr2:uid="{E2A2D887-50C5-4B18-AB6F-B16D4B16A3D5}"/>
+    <workbookView xWindow="-22560" yWindow="165" windowWidth="15990" windowHeight="13740" xr2:uid="{E2A2D887-50C5-4B18-AB6F-B16D4B16A3D5}"/>
   </bookViews>
   <sheets>
     <sheet name="01-05_31-08-21" sheetId="1" r:id="rId1"/>
@@ -38,9 +38,6 @@
     <t xml:space="preserve">fattura </t>
   </si>
   <si>
-    <t>2022/1000885</t>
-  </si>
-  <si>
     <t>Tot</t>
   </si>
   <si>
@@ -111,6 +108,9 @@
   </si>
   <si>
     <t>Contatore</t>
+  </si>
+  <si>
+    <t>22/33</t>
   </si>
 </sst>
 </file>
@@ -293,7 +293,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -368,12 +368,6 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="4" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -393,6 +387,13 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -707,10 +708,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DE37815-D1F8-4968-92DA-293FE4F2A317}">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -724,313 +725,278 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="19">
+        <v>21024</v>
+      </c>
+      <c r="C1" s="19">
+        <v>21024</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="19">
-        <v>44317</v>
-      </c>
-      <c r="C1" s="19">
-        <v>44439</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>25</v>
-      </c>
       <c r="H1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="J1" s="14"/>
       <c r="K1" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="40">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="40">
-        <v>174.89</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
       <c r="E2" s="19">
-        <v>44589</v>
+        <v>21024</v>
       </c>
       <c r="F2" s="43">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="H2" s="13">
-        <v>2020</v>
+        <v>0</v>
       </c>
       <c r="I2" s="13">
-        <v>633</v>
+        <v>0</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K2" s="9">
         <v>163</v>
       </c>
       <c r="L2" s="41">
-        <v>8.9450000000000002E-2</v>
+        <v>0</v>
       </c>
       <c r="N2" s="42">
-        <v>5.9130000000000002E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" s="34">
-        <f>K11+L11+M11+N11</f>
-        <v>22.5</v>
+        <f>K12+L12+M12+N12</f>
+        <v>0</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="H3" s="13">
-        <v>2021</v>
+        <v>0</v>
       </c>
       <c r="I3" s="13">
         <v>0</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K3" s="9">
         <v>300</v>
       </c>
       <c r="L3" s="41">
-        <v>0.18951000000000001</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="28"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="30" t="s">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B4" s="34"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="H4" s="13">
+        <v>0</v>
+      </c>
+      <c r="I4" s="13">
+        <v>0</v>
+      </c>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="55"/>
+    </row>
+    <row r="5" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="28"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="E5" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="F5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="G5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="5" t="s">
+      <c r="H5" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="20" t="s">
+      <c r="K5" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="M5" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="N5" s="31" t="s">
         <v>21</v>
-      </c>
-      <c r="L4" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="M4" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="N4" s="31" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="45"/>
-      <c r="C5" s="46">
-        <v>44347</v>
-      </c>
-      <c r="D5" s="47">
-        <v>24879</v>
-      </c>
-      <c r="E5" s="47">
-        <v>0</v>
-      </c>
-      <c r="F5" s="48">
-        <f t="shared" ref="F5:F8" si="0">IF(E5-D5&gt;0,E5-D5,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G5" s="9">
-        <f>I2</f>
-        <v>633</v>
-      </c>
-      <c r="H5" s="3">
-        <f>IF(F5-G5&gt;0,F5-G5,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I5" s="36">
-        <f>IF(H5&lt;$K$2,H5,$K$2)</f>
-        <v>0</v>
-      </c>
-      <c r="J5" s="4">
-        <f>H5-I5</f>
-        <v>0</v>
-      </c>
-      <c r="K5" s="37">
-        <f>$F$2</f>
-        <v>4.5</v>
-      </c>
-      <c r="L5" s="38">
-        <f>I5*$L$2</f>
-        <v>0</v>
-      </c>
-      <c r="M5" s="38">
-        <f>J5*$L$3</f>
-        <v>0</v>
-      </c>
-      <c r="N5" s="39">
-        <f>F5*$N$2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="17">
-        <v>44377</v>
-      </c>
-      <c r="D6" s="49">
-        <f>E5</f>
-        <v>0</v>
-      </c>
-      <c r="E6" s="50">
-        <v>0</v>
-      </c>
-      <c r="F6" s="51">
-        <f t="shared" si="0"/>
+      <c r="A6" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="54"/>
+      <c r="C6" s="44">
+        <v>44347</v>
+      </c>
+      <c r="D6" s="45">
+        <v>24879</v>
+      </c>
+      <c r="E6" s="45">
+        <v>0</v>
+      </c>
+      <c r="F6" s="46">
+        <f t="shared" ref="F6:F9" si="0">IF(E6-D6&gt;0,E6-D6,0)</f>
         <v>0</v>
       </c>
       <c r="G6" s="9">
-        <f>IF(G5-F5&gt;0,G5-F5,0)</f>
-        <v>633</v>
-      </c>
-      <c r="H6" s="8">
-        <f t="shared" ref="H6:H8" si="1">IF(F6-G6&gt;0,F6-G6,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="12">
-        <f t="shared" ref="I6:I8" si="2">IF(H6&lt;$K$2,H6,$K$2)</f>
-        <v>0</v>
-      </c>
-      <c r="J6" s="9">
-        <f t="shared" ref="J6:J8" si="3">H6-I6</f>
-        <v>0</v>
-      </c>
-      <c r="K6" s="25">
-        <f t="shared" ref="K6:K9" si="4">$F$2</f>
-        <v>4.5</v>
-      </c>
-      <c r="L6" s="22">
-        <f t="shared" ref="L6:L8" si="5">I6*$L$2</f>
-        <v>0</v>
-      </c>
-      <c r="M6" s="22">
-        <f t="shared" ref="M6:M8" si="6">J6*$L$3</f>
-        <v>0</v>
-      </c>
-      <c r="N6" s="32">
-        <f t="shared" ref="N6:N8" si="7">F6*$N$2</f>
+        <f>I2</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="3">
+        <f>IF(F6-G6&gt;0,F6-G6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="36">
+        <f>IF(H6&lt;$K$2,H6,$K$2)</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
+        <f>H6-I6</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="37">
+        <f>$F$2</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="38">
+        <f>I6*$L$2</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="38">
+        <f>J6*$L$3</f>
+        <v>0</v>
+      </c>
+      <c r="N6" s="39">
+        <f>F6*$N$2</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="9"/>
-      <c r="C7" s="16">
-        <v>44408</v>
-      </c>
-      <c r="D7" s="49">
-        <f t="shared" ref="D7:D9" si="8">E6</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="50">
-        <v>0</v>
-      </c>
-      <c r="F7" s="51">
+      <c r="C7" s="17">
+        <v>44377</v>
+      </c>
+      <c r="D7" s="47">
+        <f>E6</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="48">
+        <v>0</v>
+      </c>
+      <c r="F7" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G7" s="9">
-        <f t="shared" ref="G7:G8" si="9">IF(G6-F6&gt;0,G6-F6,0)</f>
-        <v>633</v>
+        <f>IF(G6-F6&gt;0,G6-F6,0)</f>
+        <v>0</v>
       </c>
       <c r="H7" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="H7:H9" si="1">IF(F7-G7&gt;0,F7-G7,0)</f>
         <v>0</v>
       </c>
       <c r="I7" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="I7:I9" si="2">IF(H7&lt;$K$2,H7,$K$2)</f>
         <v>0</v>
       </c>
       <c r="J7" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="J7:J9" si="3">H7-I7</f>
         <v>0</v>
       </c>
       <c r="K7" s="25">
-        <f t="shared" si="4"/>
-        <v>4.5</v>
+        <f t="shared" ref="K7:K10" si="4">$F$2</f>
+        <v>0</v>
       </c>
       <c r="L7" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="L7:L9" si="5">I7*$L$2</f>
         <v>0</v>
       </c>
       <c r="M7" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="M7:M9" si="6">J7*$L$3</f>
         <v>0</v>
       </c>
       <c r="N7" s="32">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="N7:N9" si="7">F7*$N$2</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="B8" s="9"/>
-      <c r="C8" s="17">
-        <v>44439</v>
-      </c>
-      <c r="D8" s="49">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="E8" s="50">
-        <v>0</v>
-      </c>
-      <c r="F8" s="51">
+      <c r="C8" s="16">
+        <v>44408</v>
+      </c>
+      <c r="D8" s="47">
+        <f t="shared" ref="D8:D10" si="8">E7</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="48">
+        <v>0</v>
+      </c>
+      <c r="F8" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G8" s="9">
-        <f t="shared" si="9"/>
-        <v>633</v>
+        <f t="shared" ref="G8:G9" si="9">IF(G7-F7&gt;0,G7-F7,0)</f>
+        <v>0</v>
       </c>
       <c r="H8" s="8">
         <f t="shared" si="1"/>
@@ -1046,7 +1012,7 @@
       </c>
       <c r="K8" s="25">
         <f t="shared" si="4"/>
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="L8" s="22">
         <f t="shared" si="5"/>
@@ -1062,84 +1028,134 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="18">
+      <c r="A9" s="8"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="17">
         <v>44439</v>
       </c>
-      <c r="D9" s="52">
+      <c r="D9" s="47">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="E9" s="53">
-        <v>0</v>
-      </c>
-      <c r="F9" s="54">
-        <f>IF(E9-D9&gt;0,E9-D9,0)</f>
+      <c r="E9" s="48">
+        <v>0</v>
+      </c>
+      <c r="F9" s="49">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G9" s="9">
-        <f t="shared" ref="G9" si="10">IF(G8-F8&gt;0,G8-F8,0)</f>
-        <v>633</v>
-      </c>
-      <c r="H9" s="10">
-        <f t="shared" ref="H9" si="11">IF(F9-G9&gt;0,F9-G9,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I9" s="23">
-        <f t="shared" ref="I9" si="12">IF(H9&lt;$K$2,H9,$K$2)</f>
-        <v>0</v>
-      </c>
-      <c r="J9" s="11">
-        <f t="shared" ref="J9" si="13">H9-I9</f>
-        <v>0</v>
-      </c>
-      <c r="K9" s="26">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="25">
         <f t="shared" si="4"/>
-        <v>4.5</v>
-      </c>
-      <c r="L9" s="24">
-        <f t="shared" ref="L9" si="14">I9*$L$2</f>
-        <v>0</v>
-      </c>
-      <c r="M9" s="24">
-        <f t="shared" ref="M9" si="15">J9*$L$3</f>
-        <v>0</v>
-      </c>
-      <c r="N9" s="33">
-        <f t="shared" ref="N9" si="16">F9*$N$2</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M9" s="22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N9" s="32">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="J11" t="s">
-        <v>20</v>
-      </c>
-      <c r="K11" s="15">
-        <f t="shared" ref="K11:L11" si="17">SUM(K5:K9)</f>
-        <v>22.5</v>
-      </c>
-      <c r="L11" s="15">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="10"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="18">
+        <v>44439</v>
+      </c>
+      <c r="D10" s="50">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E10" s="51">
+        <v>0</v>
+      </c>
+      <c r="F10" s="52">
+        <f>IF(E10-D10&gt;0,E10-D10,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="9">
+        <f t="shared" ref="G10" si="10">IF(G9-F9&gt;0,G9-F9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="10">
+        <f t="shared" ref="H10" si="11">IF(F10-G10&gt;0,F10-G10,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="23">
+        <f t="shared" ref="I10" si="12">IF(H10&lt;$K$2,H10,$K$2)</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="11">
+        <f t="shared" ref="J10" si="13">H10-I10</f>
+        <v>0</v>
+      </c>
+      <c r="K10" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L10" s="24">
+        <f t="shared" ref="L10" si="14">I10*$L$2</f>
+        <v>0</v>
+      </c>
+      <c r="M10" s="24">
+        <f t="shared" ref="M10" si="15">J10*$L$3</f>
+        <v>0</v>
+      </c>
+      <c r="N10" s="33">
+        <f t="shared" ref="N10" si="16">F10*$N$2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" s="15">
+        <f t="shared" ref="K12:L12" si="17">SUM(K6:K10)</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="15">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="M11" s="15">
-        <f>SUM(M5:M9)</f>
-        <v>0</v>
-      </c>
-      <c r="N11" s="15">
-        <f>SUM(N5:N9)</f>
+      <c r="M12" s="15">
+        <f>SUM(M6:M10)</f>
+        <v>0</v>
+      </c>
+      <c r="N12" s="15">
+        <f>SUM(N6:N10)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="I5:I8" formula="1"/>
+    <ignoredError sqref="I6:I9" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/dati/Fattura_Templ.xlsx
+++ b/dati/Fattura_Templ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\java\photon2\readfatt\dati\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A9FD637-B9FE-4301-8697-9A19709E9DB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44DBD503-F6A3-45C3-8FF5-29C1F68098A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22560" yWindow="165" windowWidth="15990" windowHeight="13740" xr2:uid="{E2A2D887-50C5-4B18-AB6F-B16D4B16A3D5}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="17475" windowHeight="18825" xr2:uid="{E2A2D887-50C5-4B18-AB6F-B16D4B16A3D5}"/>
   </bookViews>
   <sheets>
     <sheet name="01-05_31-08-21" sheetId="1" r:id="rId1"/>
@@ -387,13 +387,13 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -711,7 +711,7 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -834,7 +834,7 @@
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
-      <c r="L4" s="55"/>
+      <c r="L4" s="53"/>
     </row>
     <row r="5" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="28"/>
@@ -877,10 +877,10 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="54"/>
+      <c r="B6" s="55"/>
       <c r="C6" s="44">
         <v>44347</v>
       </c>

--- a/dati/Fattura_Templ.xlsx
+++ b/dati/Fattura_Templ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\java\photon2\readfatt\dati\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44DBD503-F6A3-45C3-8FF5-29C1F68098A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1B9F851-C601-4FE3-AADE-80585017E766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="17475" windowHeight="18825" xr2:uid="{E2A2D887-50C5-4B18-AB6F-B16D4B16A3D5}"/>
+    <workbookView xWindow="-33990" yWindow="2160" windowWidth="16935" windowHeight="18180" xr2:uid="{E2A2D887-50C5-4B18-AB6F-B16D4B16A3D5}"/>
   </bookViews>
   <sheets>
     <sheet name="01-05_31-08-21" sheetId="1" r:id="rId1"/>
@@ -711,7 +711,7 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -721,6 +721,7 @@
     <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -895,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="9">
-        <f>I2</f>
+        <f>IF(I3-F6&gt;0,I3-F6,0)</f>
         <v>0</v>
       </c>
       <c r="H6" s="3">
@@ -945,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="9">
-        <f>IF(G6-F6&gt;0,G6-F6,0)</f>
+        <f>IF(G6-F7&gt;0,G6-F7,0)</f>
         <v>0</v>
       </c>
       <c r="H7" s="8">
@@ -995,7 +996,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="9">
-        <f t="shared" ref="G8:G9" si="9">IF(G7-F7&gt;0,G7-F7,0)</f>
+        <f t="shared" ref="G8:G10" si="9">IF(G7-F8&gt;0,G7-F8,0)</f>
         <v>0</v>
       </c>
       <c r="H8" s="8">
@@ -1095,19 +1096,19 @@
         <v>0</v>
       </c>
       <c r="G10" s="9">
-        <f t="shared" ref="G10" si="10">IF(G9-F9&gt;0,G9-F9,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H10" s="10">
-        <f t="shared" ref="H10" si="11">IF(F10-G10&gt;0,F10-G10,0)</f>
+        <f t="shared" ref="H10" si="10">IF(F10-G10&gt;0,F10-G10,0)</f>
         <v>0</v>
       </c>
       <c r="I10" s="23">
-        <f t="shared" ref="I10" si="12">IF(H10&lt;$K$2,H10,$K$2)</f>
+        <f t="shared" ref="I10" si="11">IF(H10&lt;$K$2,H10,$K$2)</f>
         <v>0</v>
       </c>
       <c r="J10" s="11">
-        <f t="shared" ref="J10" si="13">H10-I10</f>
+        <f t="shared" ref="J10" si="12">H10-I10</f>
         <v>0</v>
       </c>
       <c r="K10" s="26">
@@ -1115,15 +1116,15 @@
         <v>0</v>
       </c>
       <c r="L10" s="24">
-        <f t="shared" ref="L10" si="14">I10*$L$2</f>
+        <f t="shared" ref="L10" si="13">I10*$L$2</f>
         <v>0</v>
       </c>
       <c r="M10" s="24">
-        <f t="shared" ref="M10" si="15">J10*$L$3</f>
+        <f t="shared" ref="M10" si="14">J10*$L$3</f>
         <v>0</v>
       </c>
       <c r="N10" s="33">
-        <f t="shared" ref="N10" si="16">F10*$N$2</f>
+        <f t="shared" ref="N10" si="15">F10*$N$2</f>
         <v>0</v>
       </c>
     </row>
@@ -1132,11 +1133,11 @@
         <v>19</v>
       </c>
       <c r="K12" s="15">
-        <f t="shared" ref="K12:L12" si="17">SUM(K6:K10)</f>
+        <f t="shared" ref="K12:L12" si="16">SUM(K6:K10)</f>
         <v>0</v>
       </c>
       <c r="L12" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M12" s="15">
